--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3495.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3495.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9181764459264353</v>
+        <v>2.36437463760376</v>
       </c>
       <c r="B1">
-        <v>1.770358916330288</v>
+        <v>3.397713661193848</v>
       </c>
       <c r="C1">
-        <v>6.484340844178975</v>
+        <v>3.030774831771851</v>
       </c>
       <c r="D1">
-        <v>3.962180465856267</v>
+        <v>2.515383243560791</v>
       </c>
       <c r="E1">
-        <v>1.718858645992863</v>
+        <v>1.642297387123108</v>
       </c>
     </row>
   </sheetData>
